--- a/recherches/variations-possibles_02-resultat-selection1.xlsx
+++ b/recherches/variations-possibles_02-resultat-selection1.xlsx
@@ -494,6 +494,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:Y80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2428,8 +2431,8 @@
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B11:G11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
